--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376039.6593209954</v>
+        <v>372706.9744652318</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902568.07848821</v>
+        <v>5118051.369601969</v>
       </c>
     </row>
     <row r="11">
@@ -701,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>34.86547882798917</v>
+        <v>28.88091821707973</v>
       </c>
     </row>
     <row r="3">
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1218,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1297,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1330,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="D12" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,22 +1572,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1698,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1749,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="16">
@@ -1804,25 +1806,25 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>38.87161743162454</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="21">
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>82.69355372315674</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,10 +2408,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>18.617696580776</v>
+        <v>40.61938961819899</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>70.84795259427446</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2691,10 +2693,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2801,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>11.86372679529251</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2874,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2925,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>3.26531605719669</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,25 +3073,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3156,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>69.03881051849282</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="36">
@@ -3354,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>24.74894597221386</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3466,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>33.80371536444981</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>118.3968738826468</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>198.2885478252618</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3819,10 +3821,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>137.3121834293393</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>69.53710670646993</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3901,58 +3903,58 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3989,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>34.86547882798917</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4065,19 +4067,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>39.58387696184059</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="H45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>118.3517937444931</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S2" t="n">
-        <v>78.36807964162378</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T2" t="n">
-        <v>78.36807964162378</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U2" t="n">
-        <v>78.36807964162378</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="V2" t="n">
-        <v>78.36807964162378</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W2" t="n">
-        <v>78.36807964162378</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X2" t="n">
-        <v>38.38436553875449</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C3" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>93.21247408113457</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>53.22875997826529</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>120.7308247336138</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>158.3355078473624</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>68.2764642733967</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W5" t="n">
-        <v>68.2764642733967</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X5" t="n">
-        <v>68.2764642733967</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y5" t="n">
-        <v>28.29275017052741</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F6" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G6" t="n">
-        <v>83.13413836268582</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H6" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H7" t="n">
-        <v>93.21247408113457</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I7" t="n">
-        <v>53.22875997826529</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F9" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G9" t="n">
-        <v>78.36807964162378</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G10" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.38436553875449</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L11" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>104.756466833843</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>104.756466833843</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>104.756466833843</v>
       </c>
       <c r="W11" t="n">
-        <v>118.3517937444931</v>
+        <v>104.756466833843</v>
       </c>
       <c r="X11" t="n">
-        <v>78.36807964162378</v>
+        <v>104.756466833843</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.38436553875449</v>
+        <v>104.756466833843</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>38.38436553875449</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D12" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E12" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L12" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N12" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M14" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N14" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V14" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W14" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X14" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y14" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.70321845405519</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C17" t="n">
-        <v>32.70321845405519</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D17" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>131.9507376187037</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>131.9507376187037</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>131.9507376187037</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>87.37278572049297</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5731,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5792,10 +5794,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5853,25 +5855,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>880.5283133660334</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>678.3417187247995</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6032,7 +6034,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>346.2587618989155</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C24" t="n">
-        <v>346.2587618989155</v>
+        <v>515.0172522330638</v>
       </c>
       <c r="D24" t="n">
-        <v>197.3243522376642</v>
+        <v>366.0828425718125</v>
       </c>
       <c r="E24" t="n">
-        <v>38.08689723220868</v>
+        <v>206.845387566357</v>
       </c>
       <c r="F24" t="n">
-        <v>38.08689723220868</v>
+        <v>60.310829593242</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X24" t="n">
-        <v>554.0190606638694</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y24" t="n">
-        <v>346.2587618989155</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>125.0774898247174</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6643,19 +6645,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.0282188019862</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C32" t="n">
-        <v>266.0282188019862</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D32" t="n">
-        <v>266.0282188019862</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E32" t="n">
-        <v>22.57944215788615</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>509.4769954460863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y32" t="n">
-        <v>266.0282188019862</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>894.3209832697344</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>666.0973650061235</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>430.9452567743808</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>44.28007843568128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>44.28007843568128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>44.28007843568128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>44.28007843568128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>252.1315786412141</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>252.1315786412141</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>44.28007843568128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>44.28007843568128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7114,13 +7116,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="40">
@@ -7363,10 +7365,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.2087419265811</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>104.1029673515831</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>935.7723584728571</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T41" t="n">
-        <v>935.7723584728571</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>935.7723584728571</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>935.7723584728571</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>935.7723584728571</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>696.9178196240985</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>458.0632807753398</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.6164546579724</v>
+        <v>482.1535401227612</v>
       </c>
       <c r="C42" t="n">
-        <v>18.91727947682168</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>608.3392789286765</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N42" t="n">
-        <v>842.4406124543449</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>876.4694153277549</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>772.4466292917531</v>
+        <v>893.8176537869292</v>
       </c>
       <c r="T42" t="n">
-        <v>772.4466292917531</v>
+        <v>893.8176537869292</v>
       </c>
       <c r="U42" t="n">
-        <v>772.4466292917531</v>
+        <v>893.8176537869292</v>
       </c>
       <c r="V42" t="n">
-        <v>772.4466292917531</v>
+        <v>893.8176537869292</v>
       </c>
       <c r="W42" t="n">
-        <v>533.5920904429944</v>
+        <v>650.3688771428292</v>
       </c>
       <c r="X42" t="n">
-        <v>533.5920904429944</v>
+        <v>650.3688771428292</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.8317916780405</v>
+        <v>650.3688771428292</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.13413836268582</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C44" t="n">
-        <v>83.13413836268582</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D44" t="n">
-        <v>83.13413836268582</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>83.13413836268582</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>83.13413836268582</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>43.15042425981653</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>42.35474834916943</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>81.54278654139161</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>120.7308247336138</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>123.1178524655551</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>123.1178524655551</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1178524655551</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1178524655551</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X44" t="n">
-        <v>123.1178524655551</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.13413836268582</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>158.3355078473624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C45" t="n">
-        <v>158.3355078473624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D45" t="n">
-        <v>158.3355078473624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E45" t="n">
-        <v>158.3355078473624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1178524655551</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G45" t="n">
-        <v>83.13413836268582</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>43.15042425981653</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>3.166710156947247</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>40.77139327069581</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>158.3355078473624</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>158.3355078473624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>158.3355078473624</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>123.1178524655551</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>83.13413836268582</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>43.15042425981653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8067,16 +8069,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>171.9589358120561</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>258.0743794427063</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8259673720848</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -8778,16 +8780,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,19 +9248,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,13 +10907,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1360004134264</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>176.968772599404</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>268.0827398194126</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.3724598280644</v>
+        <v>357.3570204389738</v>
       </c>
     </row>
     <row r="3">
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>51.27160674604839</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>165.2992498668324</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22686,13 +22688,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="4">
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22796,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>390.4279579016907</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22835,22 +22837,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22869,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>102.4780383352215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>175.6104107424167</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23066,16 +23068,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23106,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.0612034935604</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I9" t="n">
-        <v>55.27774534968376</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23185,16 +23187,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6435121988869</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23218,19 +23220,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C11" t="n">
-        <v>330.4074129430184</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,13 +23305,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>196.1735214871193</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>133.1246220264752</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D12" t="n">
-        <v>112.5795867366496</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>232.2059530579065</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343.14996470164</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C14" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,7 +23542,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23549,10 +23551,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V14" t="n">
-        <v>292.8867796421457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>126.9493066880268</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23637,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="16">
@@ -23692,25 +23694,25 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23750,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>181.5949713533262</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>73.36382680487192</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>147.8250225705301</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="21">
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>88.98961738068108</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,10 +24296,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>118.7258205824346</v>
+        <v>96.72412754501164</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,10 +24350,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>108.137662477717</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>101.8605463940413</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24579,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24655,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24689,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>403.4390107198425</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24762,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>97.38737029608566</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24813,7 +24815,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24920,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>403.6107296845148</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>137.40686139585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25044,10 +25046,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>131.1259181763288</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="36">
@@ -25242,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>120.32026642117</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25278,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25354,16 +25356,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25409,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>352.4342232916038</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25482,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25518,13 +25520,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>87.28582189465756</v>
       </c>
     </row>
     <row r="40">
@@ -25603,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>166.9843439457457</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25676,7 +25678,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>35.39631555897648</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25719,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>102.1460643973679</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>115.0036391131605</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25953,19 +25955,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>97.75964020137005</v>
+        <v>108.2910995245859</v>
       </c>
       <c r="H45" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26074,16 +26076,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>217.9680370670172</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238467</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358695.7022238466</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495427.235636789</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355301.6422752916</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76974.81962490578</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="C2" t="n">
-        <v>76974.81962490578</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="D2" t="n">
-        <v>76974.81962490581</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="E2" t="n">
-        <v>76974.81962490581</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="F2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26335,7 +26337,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
         <v>108004.4371453661</v>
@@ -26347,13 +26349,13 @@
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="O2" t="n">
         <v>108004.437145366</v>
       </c>
-      <c r="O2" t="n">
-        <v>107304.5740098336</v>
-      </c>
       <c r="P2" t="n">
-        <v>76974.81962490577</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="C4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="D4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="E4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="F4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="G4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
         <v>25282.26821261927</v>
@@ -26454,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>25114.18636895109</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>17830.0749817395</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9844.977324803462</v>
+        <v>8602.403897583848</v>
       </c>
       <c r="C6" t="n">
-        <v>23110.44492388637</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="D6" t="n">
-        <v>23110.4449238864</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="E6" t="n">
-        <v>56738.0449238864</v>
+        <v>57019.70990182809</v>
       </c>
       <c r="F6" t="n">
-        <v>56738.04492388638</v>
+        <v>57019.70990182808</v>
       </c>
       <c r="G6" t="n">
-        <v>55773.09035235328</v>
+        <v>14106.0652685128</v>
       </c>
       <c r="H6" t="n">
-        <v>14947.93319866004</v>
+        <v>68068.50016898509</v>
       </c>
       <c r="I6" t="n">
+        <v>68068.50016898508</v>
+      </c>
+      <c r="J6" t="n">
+        <v>56521.5820589942</v>
+      </c>
+      <c r="K6" t="n">
+        <v>68068.50016898512</v>
+      </c>
+      <c r="L6" t="n">
+        <v>68068.50016898509</v>
+      </c>
+      <c r="M6" t="n">
+        <v>68068.50016898509</v>
+      </c>
+      <c r="N6" t="n">
+        <v>68068.50016898513</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20688.62195152129</v>
+      </c>
+      <c r="P6" t="n">
         <v>68068.50016898511</v>
-      </c>
-      <c r="J6" t="n">
-        <v>57711.61626518131</v>
-      </c>
-      <c r="K6" t="n">
-        <v>68068.50016898513</v>
-      </c>
-      <c r="L6" t="n">
-        <v>68068.50016898508</v>
-      </c>
-      <c r="M6" t="n">
-        <v>68068.50016898511</v>
-      </c>
-      <c r="N6" t="n">
-        <v>68068.50016898505</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67813.25523849805</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56738.04492388635</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.04614936844587</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>34.37252815495957</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>37.98452839772582</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
